--- a/Management/itservice/Exel/Sale.xlsx
+++ b/Management/itservice/Exel/Sale.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,56 +514,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ремонт видеокарты</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>все отлично</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5000</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>45064.91111111111</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Ogre Magaa</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ремонт видеокарты</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>все отлично</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2343254</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45057.76597222222</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ogre Magaa</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Management/itservice/Exel/Sale.xlsx
+++ b/Management/itservice/Exel/Sale.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,31 +489,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ремонт</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>все отлично</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2343254</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45060.77361111111</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Протон</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
